--- a/biology/Microbiologie/Psilotrichidae/Psilotrichidae.xlsx
+++ b/biology/Microbiologie/Psilotrichidae/Psilotrichidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Psilotrichidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Urostylida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Psilotricha, dérivé du grec ψιλός / psilos, « nu ; dénudé ; dégarni (de poil, de cheveux) », et θριξ  / thrix), « cheveu, poil, soie, cil ».
 </t>
@@ -544,12 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genre type
-Psilotricha est un petit hypotriche ovale sans cirres frontaux et transversaux différenciés. 
-Les cirres ventraux et marginaux sont longs, en forme de soie et lâches. Les ventraux sont disposés en deux rangées commençant sur la partie frontale du corps cellulaire[1].
-Espèce type
-Psilotricha acuminata a un taille de 80 à 100 μm. De forme ovale, obliquement pointue vers l’arrière, rigide, aplatie (en vue latérale). Il montre deux rangées marginales et deux rangées ventrales de cirres très lâches, rigides et minces ; aucun cirres frontaux et transversaux.
-Le péristome fait la moitié de la largeur et de la longueur du corps ; la lèvre du péristome est droite, avec une rangée de cils. On note la présence de deux noyaux allongés et d’une vacuole contractile centrale gauche[1].
+          <t>Genre type</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psilotricha est un petit hypotriche ovale sans cirres frontaux et transversaux différenciés. 
+Les cirres ventraux et marginaux sont longs, en forme de soie et lâches. Les ventraux sont disposés en deux rangées commençant sur la partie frontale du corps cellulaire.
 </t>
         </is>
       </c>
@@ -575,13 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Psilotricha acuminata est une espèce d'eau douce, trouvée dans des fosses septiques[1].
-Selon GBIF       (30 mars 2023)[2], les espèces de la famille des Psilotrichidae ont rarement été signalées.
+          <t>Espèce type</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psilotricha acuminata a un taille de 80 à 100 μm. De forme ovale, obliquement pointue vers l’arrière, rigide, aplatie (en vue latérale). Il montre deux rangées marginales et deux rangées ventrales de cirres très lâches, rigides et minces ; aucun cirres frontaux et transversaux.
+Le péristome fait la moitié de la largeur et de la longueur du corps ; la lèvre du péristome est droite, avec une rangée de cils. On note la présence de deux noyaux allongés et d’une vacuole contractile centrale gauche.
 </t>
         </is>
       </c>
@@ -607,12 +629,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psilotricha acuminata est une espèce d'eau douce, trouvée dans des fosses septiques.
+Selon GBIF       (30 mars 2023), les espèces de la famille des Psilotrichidae ont rarement été signalées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Psilotrichidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psilotrichidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 mars 2023)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 mars 2023) :
 Hemiholosticha Gelei, 1954
 Pigostyla Tagliani, 1922
 Psilotricha Stein, 1859 genre type
@@ -621,33 +679,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Psilotrichidae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Psilotrichidae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Psilotrichidae Bütschli, 1889[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Psilotrichidae Bütschli, 1889.
 </t>
         </is>
       </c>
